--- a/datos/Psylvestris_CyL-datos_ejemplo.xlsx
+++ b/datos/Psylvestris_CyL-datos_ejemplo.xlsx
@@ -26,58 +26,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
-    <t xml:space="preserve">INVENTORY_ID</t>
+    <t xml:space="preserve">ID_Inventario</t>
   </si>
   <si>
-    <t xml:space="preserve">PLOT_ID</t>
+    <t xml:space="preserve">ID_Parcela</t>
   </si>
   <si>
-    <t xml:space="preserve">SPECIE_IFN_ID</t>
+    <t xml:space="preserve">ID_especie_principal</t>
   </si>
   <si>
-    <t xml:space="preserve">YEAR</t>
+    <t xml:space="preserve">Anho</t>
   </si>
   <si>
-    <t xml:space="preserve">AGE</t>
+    <t xml:space="preserve">T</t>
   </si>
   <si>
-    <t xml:space="preserve">DENSITY</t>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">BASAL_AREA</t>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">DOMINANT_H</t>
+    <t xml:space="preserve">Ho</t>
   </si>
   <si>
-    <t xml:space="preserve">MEAN_H</t>
+    <t xml:space="preserve">h_media</t>
   </si>
   <si>
-    <t xml:space="preserve">QM_DBH</t>
+    <t xml:space="preserve">dg</t>
   </si>
   <si>
-    <t xml:space="preserve">VOL</t>
+    <t xml:space="preserve">V_con_corteza</t>
   </si>
   <si>
     <t xml:space="preserve">Del_Rio_et_al_2006</t>
   </si>
   <si>
-    <t xml:space="preserve">TREE_ID</t>
+    <t xml:space="preserve">ID_arbol</t>
   </si>
   <si>
-    <t xml:space="preserve">specie</t>
+    <t xml:space="preserve">especie</t>
   </si>
   <si>
-    <t xml:space="preserve">expan</t>
+    <t xml:space="preserve">factor_expansion</t>
   </si>
   <si>
     <t xml:space="preserve">dbh</t>
   </si>
   <si>
-    <t xml:space="preserve">height</t>
+    <t xml:space="preserve">h</t>
   </si>
   <si>
-    <t xml:space="preserve">basal_area</t>
+    <t xml:space="preserve">g</t>
   </si>
 </sst>
 </file>
@@ -88,7 +88,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -109,12 +109,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,16 +159,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -206,7 +196,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,10 +204,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="4" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="951" min="12" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="953" min="952" style="1" width="11.57"/>
@@ -225,29 +212,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="985" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -454,7 +441,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,34 +451,32 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="892" min="9" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="892" min="6" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="910" min="893" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="966" min="911" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="967" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -514,19 +499,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>181.888888888889</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="3" t="n">
         <f aca="false">(SQRT(H2/PI()))*2</f>
         <v>11.2941263930155</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="3" t="n">
         <f aca="false">Parcelas!I2</f>
         <v>3.7</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="3" t="n">
         <f aca="false">(Parcelas!G2*10000)/Parcelas!F2</f>
         <v>100.183262064753</v>
       </c>
@@ -547,19 +532,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>181.888888888889</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="3" t="n">
         <f aca="false">F2</f>
         <v>11.2941263930155</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="3" t="n">
         <f aca="false">G2+0.7</f>
         <v>4.4</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="3" t="n">
         <f aca="false">H$2</f>
         <v>100.183262064753</v>
       </c>
@@ -580,19 +565,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>181.888888888889</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3" t="n">
         <f aca="false">F3</f>
         <v>11.2941263930155</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="3" t="n">
         <f aca="false">G2-0.7</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="3" t="n">
         <f aca="false">H$2</f>
         <v>100.183262064753</v>
       </c>
@@ -613,19 +598,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>181.888888888889</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3" t="n">
         <f aca="false">F$2*1.2</f>
         <v>13.5529516716186</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="3" t="n">
         <f aca="false">G2</f>
         <v>3.7</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="3" t="n">
         <f aca="false">PI()*((F5/2)^2)</f>
         <v>144.263897373244</v>
       </c>
@@ -646,19 +631,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>181.888888888889</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="3" t="n">
         <f aca="false">F$2*1.2</f>
         <v>13.5529516716186</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="3" t="n">
         <f aca="false">G3</f>
         <v>4.4</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="3" t="n">
         <f aca="false">PI()*((F6/2)^2)</f>
         <v>144.263897373244</v>
       </c>
@@ -679,19 +664,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>181.888888888889</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="3" t="n">
         <f aca="false">F$2*1.2</f>
         <v>13.5529516716186</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="3" t="n">
         <f aca="false">G4</f>
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="3" t="n">
         <f aca="false">PI()*((F7/2)^2)</f>
         <v>144.263897373244</v>
       </c>
@@ -712,19 +697,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>181.888888888889</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="3" t="n">
         <f aca="false">F$2*0.8</f>
         <v>9.03530111441239</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="3" t="n">
         <f aca="false">G5</f>
         <v>3.7</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="3" t="n">
         <f aca="false">PI()*((F8/2)^2)</f>
         <v>64.1172877214417</v>
       </c>
@@ -745,19 +730,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>21</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>181.888888888889</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="3" t="n">
         <f aca="false">F$2*0.8</f>
         <v>9.03530111441239</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="3" t="n">
         <f aca="false">G6</f>
         <v>4.4</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="3" t="n">
         <f aca="false">PI()*((F9/2)^2)</f>
         <v>64.1172877214417</v>
       </c>
@@ -778,19 +763,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>181.888888888889</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="3" t="n">
         <f aca="false">F$2*0.8</f>
         <v>9.03530111441239</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="3" t="n">
         <f aca="false">G7</f>
         <v>3</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="3" t="n">
         <f aca="false">PI()*((F10/2)^2)</f>
         <v>64.1172877214417</v>
       </c>
@@ -811,19 +796,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>148.666666666667</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="3" t="n">
         <f aca="false">(SQRT(H11/PI()))*2</f>
         <v>13.0876977016697</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="3" t="n">
         <f aca="false">Parcelas!I3</f>
         <v>5</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="3" t="n">
         <f aca="false">(Parcelas!G3*10000)/Parcelas!F3</f>
         <v>134.529147982063</v>
       </c>
@@ -844,19 +829,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>148.666666666667</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="3" t="n">
         <f aca="false">F11</f>
         <v>13.0876977016697</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="3" t="n">
         <f aca="false">G11+0.7</f>
         <v>5.7</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="3" t="n">
         <f aca="false">H$11</f>
         <v>134.529147982063</v>
       </c>
@@ -877,19 +862,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>21</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>148.666666666667</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="3" t="n">
         <f aca="false">F12</f>
         <v>13.0876977016697</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="3" t="n">
         <f aca="false">G11-0.7</f>
         <v>4.3</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="3" t="n">
         <f aca="false">H$11</f>
         <v>134.529147982063</v>
       </c>
@@ -910,19 +895,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>21</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>148.666666666667</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="3" t="n">
         <f aca="false">F$11*1.2</f>
         <v>15.7052372420037</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="3" t="n">
         <f aca="false">G11</f>
         <v>5</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="3" t="n">
         <f aca="false">PI()*((F14/2)^2)</f>
         <v>193.72197309417</v>
       </c>
@@ -943,19 +928,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>21</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>148.666666666667</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="3" t="n">
         <f aca="false">F$11*1.2</f>
         <v>15.7052372420037</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="3" t="n">
         <f aca="false">G12</f>
         <v>5.7</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="3" t="n">
         <f aca="false">PI()*((F15/2)^2)</f>
         <v>193.72197309417</v>
       </c>
@@ -976,19 +961,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>21</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>148.666666666667</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="3" t="n">
         <f aca="false">F$11*1.2</f>
         <v>15.7052372420037</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="3" t="n">
         <f aca="false">G13</f>
         <v>4.3</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="3" t="n">
         <f aca="false">PI()*((F16/2)^2)</f>
         <v>193.72197309417</v>
       </c>
@@ -1009,19 +994,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>21</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>148.666666666667</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="3" t="n">
         <f aca="false">F$11*0.8</f>
         <v>10.4701581613358</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="3" t="n">
         <f aca="false">G14</f>
         <v>5</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="3" t="n">
         <f aca="false">PI()*((F17/2)^2)</f>
         <v>86.0986547085202</v>
       </c>
@@ -1042,19 +1027,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>21</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>148.666666666667</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="3" t="n">
         <f aca="false">F$11*0.8</f>
         <v>10.4701581613358</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="3" t="n">
         <f aca="false">G15</f>
         <v>5.7</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="3" t="n">
         <f aca="false">PI()*((F18/2)^2)</f>
         <v>86.0986547085202</v>
       </c>
@@ -1075,19 +1060,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>21</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>148.666666666667</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="3" t="n">
         <f aca="false">F$11*0.8</f>
         <v>10.4701581613358</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="3" t="n">
         <f aca="false">G16</f>
         <v>4.3</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="3" t="n">
         <f aca="false">PI()*((F19/2)^2)</f>
         <v>86.0986547085202</v>
       </c>
@@ -1108,19 +1093,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>21</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>124.444444444444</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="3" t="n">
         <f aca="false">(SQRT(H20/PI()))*2</f>
         <v>14.9650840742957</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="3" t="n">
         <f aca="false">Parcelas!I4</f>
         <v>6.5</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="3" t="n">
         <f aca="false">(Parcelas!G4*10000)/Parcelas!F4</f>
         <v>175.892857142857</v>
       </c>
@@ -1141,19 +1126,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>21</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>124.444444444444</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="3" t="n">
         <f aca="false">F20</f>
         <v>14.9650840742957</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="3" t="n">
         <f aca="false">G20+0.7</f>
         <v>7.2</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="3" t="n">
         <f aca="false">H$20</f>
         <v>175.892857142857</v>
       </c>
@@ -1174,19 +1159,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>21</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>124.444444444444</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="3" t="n">
         <f aca="false">F21</f>
         <v>14.9650840742957</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="3" t="n">
         <f aca="false">G20-0.7</f>
         <v>5.8</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="3" t="n">
         <f aca="false">H$20</f>
         <v>175.892857142857</v>
       </c>
@@ -1207,19 +1192,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>21</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>124.444444444444</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="3" t="n">
         <f aca="false">F$20*1.2</f>
         <v>17.9581008891548</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="3" t="n">
         <f aca="false">G20</f>
         <v>6.5</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="3" t="n">
         <f aca="false">PI()*((F23/2)^2)</f>
         <v>253.285714285714</v>
       </c>
@@ -1240,19 +1225,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>21</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>124.444444444444</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="3" t="n">
         <f aca="false">F$20*1.2</f>
         <v>17.9581008891548</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="3" t="n">
         <f aca="false">G21</f>
         <v>7.2</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="3" t="n">
         <f aca="false">PI()*((F24/2)^2)</f>
         <v>253.285714285714</v>
       </c>
@@ -1273,19 +1258,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>21</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>124.444444444444</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="3" t="n">
         <f aca="false">F$20*1.2</f>
         <v>17.9581008891548</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="3" t="n">
         <f aca="false">G22</f>
         <v>5.8</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="3" t="n">
         <f aca="false">PI()*((F25/2)^2)</f>
         <v>253.285714285714</v>
       </c>
@@ -1306,19 +1291,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>21</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>124.444444444444</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="3" t="n">
         <f aca="false">F$20*0.8</f>
         <v>11.9720672594366</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="3" t="n">
         <f aca="false">G23</f>
         <v>6.5</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="3" t="n">
         <f aca="false">PI()*((F26/2)^2)</f>
         <v>112.571428571429</v>
       </c>
@@ -1339,19 +1324,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>21</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>124.444444444444</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="3" t="n">
         <f aca="false">F$20*0.8</f>
         <v>11.9720672594366</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="3" t="n">
         <f aca="false">G24</f>
         <v>7.2</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="3" t="n">
         <f aca="false">PI()*((F27/2)^2)</f>
         <v>112.571428571429</v>
       </c>
@@ -1372,19 +1357,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>21</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>124.444444444444</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="3" t="n">
         <f aca="false">F$20*0.8</f>
         <v>11.9720672594366</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="3" t="n">
         <f aca="false">G25</f>
         <v>5.8</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="3" t="n">
         <f aca="false">PI()*((F28/2)^2)</f>
         <v>112.571428571429</v>
       </c>
@@ -1405,19 +1390,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>21</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>105.666666666667</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="3" t="n">
         <f aca="false">(SQRT(H29/PI()))*2</f>
         <v>17.0449082475912</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="3" t="n">
         <f aca="false">Parcelas!I5</f>
         <v>8.3</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="3" t="n">
         <f aca="false">(Parcelas!G5*10000)/Parcelas!F5</f>
         <v>228.180862250263</v>
       </c>
@@ -1438,19 +1423,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>21</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>105.666666666667</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="3" t="n">
         <f aca="false">F29</f>
         <v>17.0449082475912</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="3" t="n">
         <f aca="false">G29+0.7</f>
         <v>9</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="3" t="n">
         <f aca="false">H$29</f>
         <v>228.180862250263</v>
       </c>
@@ -1471,19 +1456,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>21</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>105.666666666667</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="3" t="n">
         <f aca="false">F30</f>
         <v>17.0449082475912</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="3" t="n">
         <f aca="false">G29-0.7</f>
         <v>7.6</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="3" t="n">
         <f aca="false">H$29</f>
         <v>228.180862250263</v>
       </c>
@@ -1504,19 +1489,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>21</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>105.666666666667</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="3" t="n">
         <f aca="false">F$29*1.2</f>
         <v>20.4538898971094</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="3" t="n">
         <f aca="false">G29</f>
         <v>8.3</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="3" t="n">
         <f aca="false">PI()*((F32/2)^2)</f>
         <v>328.580441640379</v>
       </c>
@@ -1537,19 +1522,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>21</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>105.666666666667</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="3" t="n">
         <f aca="false">F$29*1.2</f>
         <v>20.4538898971094</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="3" t="n">
         <f aca="false">G30</f>
         <v>9</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="3" t="n">
         <f aca="false">PI()*((F33/2)^2)</f>
         <v>328.580441640379</v>
       </c>
@@ -1570,19 +1555,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>21</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>105.666666666667</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="3" t="n">
         <f aca="false">F$29*1.2</f>
         <v>20.4538898971094</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="3" t="n">
         <f aca="false">G31</f>
         <v>7.6</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="3" t="n">
         <f aca="false">PI()*((F34/2)^2)</f>
         <v>328.580441640379</v>
       </c>
@@ -1603,19 +1588,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>21</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>105.666666666667</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="3" t="n">
         <f aca="false">F$29*0.8</f>
         <v>13.6359265980729</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="3" t="n">
         <f aca="false">G32</f>
         <v>8.3</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="3" t="n">
         <f aca="false">PI()*((F35/2)^2)</f>
         <v>146.035751840168</v>
       </c>
@@ -1636,19 +1621,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>21</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>105.666666666667</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="3" t="n">
         <f aca="false">F$29*0.8</f>
         <v>13.6359265980729</v>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="3" t="n">
         <f aca="false">G33</f>
         <v>9</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="3" t="n">
         <f aca="false">PI()*((F36/2)^2)</f>
         <v>146.035751840168</v>
       </c>
@@ -1669,19 +1654,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>21</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>105.666666666667</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="3" t="n">
         <f aca="false">F$29*0.8</f>
         <v>13.6359265980729</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="3" t="n">
         <f aca="false">G34</f>
         <v>7.6</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="3" t="n">
         <f aca="false">PI()*((F37/2)^2)</f>
         <v>146.035751840168</v>
       </c>
@@ -1702,19 +1687,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>21</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>90.5555555555556</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="3" t="n">
         <f aca="false">(SQRT(H38/PI()))*2</f>
         <v>19.363411538907</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="3" t="n">
         <f aca="false">Parcelas!I6</f>
         <v>10.5</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="3" t="n">
         <f aca="false">(Parcelas!G6*10000)/Parcelas!F6</f>
         <v>294.478527607362</v>
       </c>
@@ -1735,19 +1720,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>21</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>90.5555555555556</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="3" t="n">
         <f aca="false">F38</f>
         <v>19.363411538907</v>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="G39" s="3" t="n">
         <f aca="false">G38+0.7</f>
         <v>11.2</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="3" t="n">
         <f aca="false">H$38</f>
         <v>294.478527607362</v>
       </c>
@@ -1768,19 +1753,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>21</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>90.5555555555556</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="3" t="n">
         <f aca="false">F39</f>
         <v>19.363411538907</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="G40" s="3" t="n">
         <f aca="false">G38-0.7</f>
         <v>9.8</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="3" t="n">
         <f aca="false">H$38</f>
         <v>294.478527607362</v>
       </c>
@@ -1801,19 +1786,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>21</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>90.5555555555556</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="3" t="n">
         <f aca="false">F$38*1.2</f>
         <v>23.2360938466885</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="G41" s="3" t="n">
         <f aca="false">G38</f>
         <v>10.5</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="3" t="n">
         <f aca="false">PI()*((F41/2)^2)</f>
         <v>424.049079754601</v>
       </c>
@@ -1834,19 +1819,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>21</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>90.5555555555556</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="3" t="n">
         <f aca="false">F$38*1.2</f>
         <v>23.2360938466885</v>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="G42" s="3" t="n">
         <f aca="false">G39</f>
         <v>11.2</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="3" t="n">
         <f aca="false">PI()*((F42/2)^2)</f>
         <v>424.049079754601</v>
       </c>
@@ -1867,19 +1852,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>21</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>90.5555555555556</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="3" t="n">
         <f aca="false">F$38*1.2</f>
         <v>23.2360938466885</v>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="G43" s="3" t="n">
         <f aca="false">G40</f>
         <v>9.8</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="3" t="n">
         <f aca="false">PI()*((F43/2)^2)</f>
         <v>424.049079754601</v>
       </c>
@@ -1900,19 +1885,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>21</v>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>90.5555555555556</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" s="3" t="n">
         <f aca="false">F$38*0.8</f>
         <v>15.4907292311256</v>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="G44" s="3" t="n">
         <f aca="false">G41</f>
         <v>10.5</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="3" t="n">
         <f aca="false">PI()*((F44/2)^2)</f>
         <v>188.466257668712</v>
       </c>
@@ -1933,19 +1918,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>21</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>90.5555555555556</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="3" t="n">
         <f aca="false">F$38*0.8</f>
         <v>15.4907292311256</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="G45" s="3" t="n">
         <f aca="false">G42</f>
         <v>11.2</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="3" t="n">
         <f aca="false">PI()*((F45/2)^2)</f>
         <v>188.466257668712</v>
       </c>
@@ -1966,19 +1951,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>21</v>
       </c>
-      <c r="E46" s="4" t="n">
+      <c r="E46" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>90.5555555555556</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="F46" s="3" t="n">
         <f aca="false">F$38*0.8</f>
         <v>15.4907292311256</v>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="G46" s="3" t="n">
         <f aca="false">G43</f>
         <v>9.8</v>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="H46" s="3" t="n">
         <f aca="false">PI()*((F46/2)^2)</f>
         <v>188.466257668712</v>
       </c>
